--- a/quarterlyReports/report_format.xlsx
+++ b/quarterlyReports/report_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayalapp/Documents/coding_projects/dad_data_project/quarterlyReports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D370E46F-878F-E843-8D15-E7DA143B7202}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9387D2-89C7-3E45-BCE7-F06F28402305}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13960" xr2:uid="{87EF98BD-D16B-484A-BF1E-96723C7FF38B}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13960" activeTab="3" xr2:uid="{87EF98BD-D16B-484A-BF1E-96723C7FF38B}"/>
   </bookViews>
   <sheets>
     <sheet name="Option1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="35">
   <si>
     <t xml:space="preserve">Location: </t>
   </si>
@@ -591,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10BA574-3245-D145-83BF-04093C567771}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,169 +602,164 @@
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="1"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -779,7 +774,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,29 +784,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -984,10 +979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814CDDD9-204A-4544-AAA5-6DBC03F7CF21}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,302 +991,301 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+    <row r="28" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>9</v>
+      <c r="B28" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1302,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2106EBF4-4AD5-2845-834F-BFC70ECC622F}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1315,359 +1309,359 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1211</v>
+      </c>
+      <c r="D9" s="4">
+        <v>767</v>
+      </c>
+      <c r="F9" s="4">
+        <v>888</v>
+      </c>
+      <c r="H9" s="4">
+        <v>990</v>
+      </c>
+      <c r="J9" s="4">
+        <v>704</v>
+      </c>
+      <c r="L9" s="4">
+        <v>409</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1801</v>
+      </c>
+      <c r="P9" s="4">
+        <v>776</v>
+      </c>
+      <c r="R9" s="4">
+        <v>932</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4">
+        <v>789</v>
+      </c>
+      <c r="D10" s="4">
+        <v>678</v>
+      </c>
+      <c r="F10" s="4">
+        <v>807</v>
+      </c>
+      <c r="H10" s="4">
+        <v>766</v>
+      </c>
+      <c r="J10" s="4">
+        <v>677</v>
+      </c>
+      <c r="L10" s="4">
+        <v>370</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1609</v>
+      </c>
+      <c r="P10" s="4">
+        <v>507</v>
+      </c>
+      <c r="R10" s="4">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4">
-        <v>1211</v>
-      </c>
-      <c r="D10" s="4">
-        <v>767</v>
-      </c>
-      <c r="F10" s="4">
-        <v>888</v>
-      </c>
-      <c r="H10" s="4">
-        <v>990</v>
-      </c>
-      <c r="J10" s="4">
-        <v>704</v>
-      </c>
-      <c r="L10" s="4">
-        <v>409</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1801</v>
-      </c>
-      <c r="P10" s="4">
-        <v>776</v>
-      </c>
-      <c r="R10" s="4">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4">
-        <v>789</v>
-      </c>
-      <c r="D11" s="4">
-        <v>678</v>
-      </c>
-      <c r="F11" s="4">
-        <v>807</v>
-      </c>
-      <c r="H11" s="4">
-        <v>766</v>
-      </c>
-      <c r="J11" s="4">
-        <v>677</v>
-      </c>
-      <c r="L11" s="4">
-        <v>370</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1609</v>
-      </c>
-      <c r="P11" s="4">
-        <v>507</v>
-      </c>
-      <c r="R11" s="4">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
+      <c r="B14" s="4">
+        <f>SUM(9:9)</f>
+        <v>8478</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(10:10)</f>
-        <v>8478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4">
-        <f>SUM(11:11)</f>
         <v>7068</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T23" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>9</v>
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1341</v>
+      </c>
+      <c r="D24" s="4">
+        <v>747</v>
+      </c>
+      <c r="F24" s="4">
+        <v>988</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1090</v>
+      </c>
+      <c r="J24" s="4">
+        <v>727</v>
+      </c>
+      <c r="L24" s="4">
+        <v>430</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1721</v>
+      </c>
+      <c r="P24" s="4">
+        <v>786</v>
+      </c>
+      <c r="R24" s="4">
+        <v>882</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4">
+        <v>989</v>
+      </c>
+      <c r="D25" s="4">
+        <v>662</v>
+      </c>
+      <c r="F25" s="4">
+        <v>797</v>
+      </c>
+      <c r="H25" s="4">
+        <v>876</v>
+      </c>
+      <c r="J25" s="4">
+        <v>691</v>
+      </c>
+      <c r="L25" s="4">
+        <v>410</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1693</v>
+      </c>
+      <c r="P25" s="4">
+        <v>577</v>
+      </c>
+      <c r="R25" s="4">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="4">
-        <v>1341</v>
-      </c>
-      <c r="D25" s="4">
-        <v>747</v>
-      </c>
-      <c r="F25" s="4">
-        <v>988</v>
-      </c>
-      <c r="H25" s="4">
-        <v>1090</v>
-      </c>
-      <c r="J25" s="4">
-        <v>727</v>
-      </c>
-      <c r="L25" s="4">
-        <v>430</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1721</v>
-      </c>
-      <c r="P25" s="4">
-        <v>786</v>
-      </c>
-      <c r="R25" s="4">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="4">
-        <v>989</v>
-      </c>
-      <c r="D26" s="4">
-        <v>662</v>
-      </c>
-      <c r="F26" s="4">
-        <v>797</v>
-      </c>
-      <c r="H26" s="4">
-        <v>876</v>
-      </c>
-      <c r="J26" s="4">
-        <v>691</v>
-      </c>
-      <c r="L26" s="4">
-        <v>410</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1693</v>
-      </c>
-      <c r="P26" s="4">
-        <v>577</v>
-      </c>
-      <c r="R26" s="4">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
+      <c r="B29" s="4">
+        <f>SUM(24:24)</f>
+        <v>8712</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4">
         <f>SUM(25:25)</f>
-        <v>8712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="4">
-        <f>SUM(26:26)</f>
         <v>7480</v>
       </c>
     </row>

--- a/quarterlyReports/report_format.xlsx
+++ b/quarterlyReports/report_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayalapp/Documents/coding_projects/dad_data_project/quarterlyReports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9387D2-89C7-3E45-BCE7-F06F28402305}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0F97AC-E5FF-EE42-A7FD-EE22AA0107B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13960" activeTab="3" xr2:uid="{87EF98BD-D16B-484A-BF1E-96723C7FF38B}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13960" xr2:uid="{87EF98BD-D16B-484A-BF1E-96723C7FF38B}"/>
   </bookViews>
   <sheets>
     <sheet name="Option1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Option2" sheetId="3" r:id="rId3"/>
     <sheet name="Example2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterateCount="1"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -593,17 +593,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10BA574-3245-D145-83BF-04093C567771}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -611,7 +611,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -619,47 +619,52 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+    </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -682,7 +687,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -711,7 +716,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -739,16 +744,16 @@
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -756,7 +761,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1298,7 +1303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2106EBF4-4AD5-2845-834F-BFC70ECC622F}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
